--- a/11205-김민경.xlsx
+++ b/11205-김민경.xlsx
@@ -5,28 +5,25 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김민경\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="제1작업" sheetId="1" r:id="rId1"/>
     <sheet name="제2작업" sheetId="2" r:id="rId2"/>
-    <sheet name="제3작업" sheetId="3" r:id="rId3"/>
+    <sheet name="제3작업" sheetId="4" r:id="rId3"/>
     <sheet name="제4작업" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">제2작업!$B$2:$H$10</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$14:$C$15</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$14:$C$16</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">제2작업!$B$18:$E$18</definedName>
-    <definedName name="분류">제1작업!$D$5:$D$12</definedName>
+    <definedName name="분류">제1작업!$E$5:$E$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId5"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,242 +33,236 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
-  <si>
-    <t>관리코드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>하스스톤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>피파 온라인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>크로스파이어</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>림월드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>리그 오브 레전드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>월드 오브 탱크</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>던전 앤 파이터</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>메이플스토리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="56">
+  <si>
+    <t>상품코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>분류</t>
-  </si>
-  <si>
-    <t>분류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>역할수행</t>
-  </si>
-  <si>
-    <t>역할수행</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아케이드</t>
-  </si>
-  <si>
-    <t>아케이드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아케이드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>시뮬레이션</t>
-  </si>
-  <si>
-    <t>시뮬레이션</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>시뮬레이션</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아케이드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>역할수행</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>역할수행</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발사</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>블리자드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스피어헤드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스마일게이트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>루데온스튜디오</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아리엇게임즈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>워게이밍넷</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>네오플</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>위젯스튜디오</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>수익금
-(백만 달러)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>만족도</t>
-  </si>
-  <si>
-    <t>만족도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>서비스 시작일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>서비스
-순서</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작연도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>최고 수익금(백만 달러)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아케이드 게임의 평균 수익금(백만 달러)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>역할수행 게임의 만족도 합계</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C14-9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S81-2</t>
-  </si>
-  <si>
-    <t>S81-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F57-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M32-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M29-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M62-9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>R55-5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M43-4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=1000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>시뮬레이션!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>총합계</t>
-  </si>
-  <si>
-    <t>개수 : 게임명</t>
-  </si>
-  <si>
-    <t>평균 : 수익금(백만 달러)</t>
-  </si>
-  <si>
-    <t>4.1-4.4</t>
-  </si>
-  <si>
-    <t>4.4-4.7</t>
-  </si>
-  <si>
-    <t>4.7-5</t>
-  </si>
-  <si>
-    <t>***</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활용품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뷰티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뷰티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활용품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활용품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이킹소다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모이스쳐페이셜크림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘물12개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>멸균흰우유10개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼펙트클렌징폼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬유유연제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉석밥 세트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>롤화장지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수
+(5점 만점)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명
+차트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최저 가격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뷰티 상품 개수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활용품 조회수 함계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수
+(5점 만점)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JWP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JWP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JWP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EA4-475</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF4-143</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA4-548</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF4-525</t>
+  </si>
+  <si>
+    <t>PF4-525</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KE4-124</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA7-125</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF4-122</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WF1-241</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조사 JWP 상품의 가격 평균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=100000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식품 개수</t>
+  </si>
+  <si>
+    <t>생활용품 개수</t>
+  </si>
+  <si>
+    <t>뷰티 개수</t>
+  </si>
+  <si>
+    <t>전체 개수</t>
+  </si>
+  <si>
+    <t>식품 평균</t>
+  </si>
+  <si>
+    <t>생활용품 평균</t>
+  </si>
+  <si>
+    <t>뷰티 평균</t>
+  </si>
+  <si>
+    <t>전체 평균</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="General&quot;점&quot;"/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="181" formatCode="#,##0&quot;원&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +280,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="굴림"/>
@@ -296,11 +294,12 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -503,122 +502,129 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
-        <name val="굴림"/>
-        <scheme val="none"/>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
       </font>
     </dxf>
     <dxf>
@@ -663,12 +669,53 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>JWP </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR"/>
+              <a:t>및 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ANS </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR"/>
+              <a:t>제조사 상품 현황</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -677,15 +724,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -701,22 +748,22 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>제1작업!$G$4</c:f>
+              <c:f>제1작업!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>만족도</c:v>
+                  <c:v>가격</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -724,62 +771,135 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-68A5-4E6A-A739-9DE1AF4AED5D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                    <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(제1작업!$C$5:$C$7,제1작업!$C$10:$C$12)</c:f>
+              <c:f>(제1작업!$C$5:$C$6,제1작업!$C$9:$C$12)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>하스스톤</c:v>
+                  <c:v>베이킹소다</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>피파 온라인</c:v>
+                  <c:v>모이스쳐페이셜크림</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>크로스파이어</c:v>
+                  <c:v>퍼펙트클렌징폼</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>월드 오브 탱크</c:v>
+                  <c:v>섬유유연제</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>던전 앤 파이터</c:v>
+                  <c:v>즉석밥 세트</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>메이플스토리</c:v>
+                  <c:v>롤화장지</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(제1작업!$G$5:$G$7,제1작업!$G$10:$G$12)</c:f>
+              <c:f>(제1작업!$F$5:$F$6,제1작업!$F$9:$F$12)</c:f>
               <c:numCache>
-                <c:formatCode>General"점"</c:formatCode>
+                <c:formatCode>#,##0"원"</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4640</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2</c:v>
+                  <c:v>19900</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8</c:v>
+                  <c:v>7150</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9000000000000004</c:v>
+                  <c:v>14490</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2</c:v>
+                  <c:v>17650</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>8560</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-51F3-41FA-9B83-9D2F6443919A}"/>
+              <c16:uniqueId val="{00000000-68A5-4E6A-A739-9DE1AF4AED5D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -792,46 +912,38 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="319557136"/>
-        <c:axId val="319557552"/>
+        <c:overlap val="-25"/>
+        <c:axId val="1858507231"/>
+        <c:axId val="1858505983"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>제1작업!$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>수익금
-(백만 달러)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>점수(5점 만점)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -839,53 +951,53 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>(제1작업!$C$5:$C$7,제1작업!$C$10:$C$12)</c:f>
+              <c:f>(제1작업!$C$5:$C$6,제1작업!$C$9:$C$12)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>하스스톤</c:v>
+                  <c:v>베이킹소다</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>피파 온라인</c:v>
+                  <c:v>모이스쳐페이셜크림</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>크로스파이어</c:v>
+                  <c:v>퍼펙트클렌징폼</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>월드 오브 탱크</c:v>
+                  <c:v>섬유유연제</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>던전 앤 파이터</c:v>
+                  <c:v>즉석밥 세트</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>메이플스토리</c:v>
+                  <c:v>롤화장지</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(제1작업!$F$5:$F$7,제1작업!$F$10:$F$12)</c:f>
+              <c:f>(제1작업!$G$5:$G$6,제1작업!$G$9:$G$12)</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>219</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>163</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1400</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>471</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>284</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -893,7 +1005,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-51F3-41FA-9B83-9D2F6443919A}"/>
+              <c16:uniqueId val="{00000001-68A5-4E6A-A739-9DE1AF4AED5D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -907,11 +1019,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="318845168"/>
-        <c:axId val="409101024"/>
+        <c:axId val="1853241023"/>
+        <c:axId val="1853689071"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="319557136"/>
+        <c:axId val="1858507231"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -939,22 +1051,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319557552"/>
+        <c:crossAx val="1858505983"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -962,7 +1074,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="319557552"/>
+        <c:axId val="1858505983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,17 +1084,15 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General&quot;점&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0&quot;원&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -998,40 +1108,44 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319557136"/>
+        <c:crossAx val="1858507231"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="409101024"/>
+        <c:axId val="1853689071"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;?_-;_-@_-" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1040,27 +1154,28 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318845168"/>
+        <c:crossAx val="1853241023"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="318845168"/>
+        <c:axId val="1853241023"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,7 +1185,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="409101024"/>
+        <c:crossAx val="1853689071"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1078,7 +1193,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1101,15 +1218,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -1122,9 +1239,10 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:blipFill>
+      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+      <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+    </a:blipFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
@@ -1141,11 +1259,15 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100">
+          <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ko-KR"/>
     </a:p>
   </c:txPr>
+  <c:userShapes r:id="rId4"/>
 </c:chartSpace>
 </file>
 
@@ -1709,7 +1831,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1721,39 +1843,32 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>35093</xdr:colOff>
+      <xdr:colOff>10886</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>25065</xdr:rowOff>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>75198</xdr:colOff>
+      <xdr:colOff>756557</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>145381</xdr:rowOff>
+      <xdr:rowOff>141514</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="육각형 1"/>
+        <xdr:cNvPr id="2" name="평행 사변형 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="160422" y="25065"/>
-          <a:ext cx="4727408" cy="461211"/>
+          <a:off x="136072" y="54428"/>
+          <a:ext cx="4974771" cy="435429"/>
         </a:xfrm>
-        <a:prstGeom prst="hexagon">
+        <a:prstGeom prst="parallelogram">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="FFFF00"/>
         </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" algn="l" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1784,7 +1899,27 @@
               <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
               <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
             </a:rPr>
-            <a:t>온라인 게임 수익 현황</a:t>
+            <a:t>관심 상품 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>TOP8 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>현황</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1794,15 +1929,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>10885</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>20051</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>151146</xdr:rowOff>
+      <xdr:rowOff>173392</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1826,8 +1961,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5479383" y="20051"/>
-          <a:ext cx="2356184" cy="471990"/>
+          <a:off x="5165271" y="0"/>
+          <a:ext cx="2383971" cy="521735"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1853,7 +1988,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9306393" cy="6081947"/>
+    <xdr:ext cx="9304587" cy="6084979"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="차트 1"/>
@@ -1876,308 +2011,77 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user" refreshedDate="45055.644522106479" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="B4:H12" sheet="제1작업"/>
-  </cacheSource>
-  <cacheFields count="7">
-    <cacheField name="관리코드" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="게임명" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="분류" numFmtId="0">
-      <sharedItems count="3">
-        <s v="역할수행"/>
-        <s v="아케이드"/>
-        <s v="시뮬레이션"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="개발사" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="수익금_x000a_(백만 달러)" numFmtId="41">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="163" maxValue="2120"/>
-    </cacheField>
-    <cacheField name="만족도" numFmtId="176">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.2" maxValue="4.9000000000000004" count="7">
-        <n v="4.4000000000000004"/>
-        <n v="4.2"/>
-        <n v="4.8"/>
-        <n v="4.5"/>
-        <n v="4.3"/>
-        <n v="4.9000000000000004"/>
-        <n v="4.5999999999999996"/>
-      </sharedItems>
-      <fieldGroup base="5">
-        <rangePr autoStart="0" autoEnd="0" startNum="4.0999999999999996" endNum="5" groupInterval="0.3"/>
-        <groupItems count="5">
-          <s v="&lt;4.1"/>
-          <s v="4.1-4.4"/>
-          <s v="4.4-4.7"/>
-          <s v="4.7-5"/>
-          <s v="&gt;5"/>
-        </groupItems>
-      </fieldGroup>
-    </cacheField>
-    <cacheField name="서비스 시작일" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2003-04-29T00:00:00" maxDate="2014-01-15T00:00:00"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="8">
-  <r>
-    <s v="C14-9"/>
-    <s v="하스스톤"/>
-    <x v="0"/>
-    <s v="블리자드"/>
-    <n v="219"/>
-    <x v="0"/>
-    <d v="2014-01-14T00:00:00"/>
-  </r>
-  <r>
-    <s v="S81-2"/>
-    <s v="피파 온라인"/>
-    <x v="1"/>
-    <s v="스피어헤드"/>
-    <n v="163"/>
-    <x v="1"/>
-    <d v="2012-12-18T00:00:00"/>
-  </r>
-  <r>
-    <s v="F57-1"/>
-    <s v="크로스파이어"/>
-    <x v="1"/>
-    <s v="스마일게이트"/>
-    <n v="1400"/>
-    <x v="2"/>
-    <d v="2007-05-03T00:00:00"/>
-  </r>
-  <r>
-    <s v="M32-2"/>
-    <s v="림월드"/>
-    <x v="2"/>
-    <s v="루데온스튜디오"/>
-    <n v="179"/>
-    <x v="3"/>
-    <d v="2013-11-04T00:00:00"/>
-  </r>
-  <r>
-    <s v="M29-1"/>
-    <s v="리그 오브 레전드"/>
-    <x v="2"/>
-    <s v="아리엇게임즈"/>
-    <n v="2120"/>
-    <x v="4"/>
-    <d v="2009-10-27T00:00:00"/>
-  </r>
-  <r>
-    <s v="M62-9"/>
-    <s v="월드 오브 탱크"/>
-    <x v="1"/>
-    <s v="워게이밍넷"/>
-    <n v="471"/>
-    <x v="5"/>
-    <d v="2010-08-12T00:00:00"/>
-  </r>
-  <r>
-    <s v="R55-5"/>
-    <s v="던전 앤 파이터"/>
-    <x v="0"/>
-    <s v="네오플"/>
-    <n v="1600"/>
-    <x v="1"/>
-    <d v="2005-08-10T00:00:00"/>
-  </r>
-  <r>
-    <s v="M43-4"/>
-    <s v="메이플스토리"/>
-    <x v="0"/>
-    <s v="위젯스튜디오"/>
-    <n v="284"/>
-    <x v="6"/>
-    <d v="2003-04-29T00:00:00"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="***" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="만족도" colHeaderCaption="분류">
-  <location ref="B2:H8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="41" showAll="0"/>
-    <pivotField axis="axisRow" numFmtId="176" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="2"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="6">
-    <i>
-      <x/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="개수 : 게임명" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="평균 : 수익금(백만 달러)" fld="4" subtotal="average" baseField="5" baseItem="0"/>
-  </dataFields>
-  <formats count="7">
-    <format dxfId="6">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="2" selected="0">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="4">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="5" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="3">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="5" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="2">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="5" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="5" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.35956</cdr:x>
+      <cdr:y>0.10091</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.46362</cdr:x>
+      <cdr:y>0.17335</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="모서리가 둥근 사각형 설명선 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3345558" y="614008"/>
+          <a:ext cx="968244" cy="440827"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -62296"/>
+            <a:gd name="adj2" fmla="val 91071"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>최고 가격</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2443,302 +2347,364 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J19"/>
+  <dimension ref="B3:J18"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F10" activeCellId="3" sqref="C4:C7 C10:C12 F4:G7 F10:G12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="14.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="19.5" style="2" customWidth="1"/>
+    <col min="4" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="10.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="5" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:10" ht="27" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="23">
+        <v>4640</v>
+      </c>
+      <c r="G5" s="16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H5" s="15">
+        <v>23869</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f>IF(_xlfn.RANK.EQ(F5,$F$5:$F$12)&lt;=3,_xlfn.RANK.EQ(F5,$F$5:$F$12),"")</f>
+        <v/>
+      </c>
+      <c r="J5" s="24" t="str">
+        <f>REPT("★",ROUND(G5,0.1))</f>
+        <v>★★★★★</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="23">
+        <v>19900</v>
+      </c>
+      <c r="G6" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="H6" s="15">
+        <v>10967</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" ref="I6:I12" si="0">IF(_xlfn.RANK.EQ(F6,$F$5:$F$12)&lt;=3,_xlfn.RANK.EQ(F6,$F$5:$F$12),"")</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="24" t="str">
+        <f t="shared" ref="J6:J12" si="1">REPT("★",ROUND(G6,0.1))</f>
+        <v>★★★★★</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="23">
+        <v>6390</v>
+      </c>
+      <c r="G7" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="H7" s="15">
+        <v>174320</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>★★★★★</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="23">
+        <v>17800</v>
+      </c>
+      <c r="G8" s="16">
+        <v>4.2</v>
+      </c>
+      <c r="H8" s="15">
+        <v>18222</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J8" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>★★★★</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="23">
+        <v>7150</v>
+      </c>
+      <c r="G9" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="H9" s="15">
+        <v>14825</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>★★★★★</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="23">
+        <v>14490</v>
+      </c>
+      <c r="G10" s="16">
+        <v>4.2</v>
+      </c>
+      <c r="H10" s="15">
+        <v>52800</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>★★★★</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="23">
+        <v>17650</v>
+      </c>
+      <c r="G11" s="16">
+        <v>5</v>
+      </c>
+      <c r="H11" s="15">
+        <v>30763</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J11" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>★★★★★</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="22">
-        <v>219</v>
-      </c>
-      <c r="G5" s="19">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H5" s="12">
-        <v>41653</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="F12" s="23">
+        <v>8560</v>
+      </c>
+      <c r="G12" s="16">
+        <v>4</v>
+      </c>
+      <c r="H12" s="15">
+        <v>12870</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>★★★★</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="22">
-        <v>163</v>
-      </c>
-      <c r="G6" s="19">
-        <v>4.2</v>
-      </c>
-      <c r="H6" s="12">
-        <v>41261</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="25">
+        <f>MIN(F5:F12)</f>
+        <v>4640</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="6">
+        <f>DSUM(B4:H12,7,E4:E5)</f>
+        <v>89539</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="F7" s="22">
-        <v>1400</v>
-      </c>
-      <c r="G7" s="19">
-        <v>4.8</v>
-      </c>
-      <c r="H7" s="12">
-        <v>39205</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="22">
-        <v>179</v>
-      </c>
-      <c r="G8" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="H8" s="12">
-        <v>41582</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="22">
-        <v>2120</v>
-      </c>
-      <c r="G9" s="19">
-        <v>4.3</v>
-      </c>
-      <c r="H9" s="12">
-        <v>40113</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="22">
-        <v>471</v>
-      </c>
-      <c r="G10" s="19">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H10" s="12">
-        <v>40402</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="22">
-        <v>1600</v>
-      </c>
-      <c r="G11" s="19">
-        <v>4.2</v>
-      </c>
-      <c r="H11" s="12">
-        <v>38574</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="22">
-        <v>284</v>
-      </c>
-      <c r="G12" s="19">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H12" s="12">
-        <v>37740</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="E14" s="10" t="str">
+        <f>COUNTIF(분류,E6)&amp;"개"</f>
+        <v>2개</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="12">
+        <f>VLOOKUP(H14,B5:H12,6,FALSE)</f>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B5:J12">
-    <cfRule type="expression" dxfId="8" priority="1">
-      <formula>$F5&gt;=1000</formula>
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$F5&lt;=8000</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -2747,274 +2713,333 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H18"/>
+  <dimension ref="B1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="23">
+        <v>4640</v>
+      </c>
+      <c r="G3" s="16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H3" s="15">
+        <v>23869</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="23">
+        <v>19900</v>
+      </c>
+      <c r="G4" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="H4" s="15">
+        <v>10967</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="23">
+        <v>6390</v>
+      </c>
+      <c r="G5" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="H5" s="15">
+        <v>174320</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="23">
+        <v>17800</v>
+      </c>
+      <c r="G6" s="16">
+        <v>4.2</v>
+      </c>
+      <c r="H6" s="15">
+        <v>18222</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="23">
+        <v>7150</v>
+      </c>
+      <c r="G7" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="H7" s="15">
+        <v>14825</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="23">
+        <v>14490</v>
+      </c>
+      <c r="G8" s="16">
+        <v>4.2</v>
+      </c>
+      <c r="H8" s="15">
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="23">
+        <v>17650</v>
+      </c>
+      <c r="G9" s="16">
+        <v>5</v>
+      </c>
+      <c r="H9" s="15">
+        <v>30763</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="16" t="s">
+      <c r="F10" s="23">
+        <v>8560</v>
+      </c>
+      <c r="G10" s="16">
+        <v>4</v>
+      </c>
+      <c r="H10" s="15">
+        <v>12870</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="12">
+        <f>DAVERAGE(B2:H10,5,D2:D3)</f>
+        <v>9230</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="2:5" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="22">
-        <v>219</v>
-      </c>
-      <c r="G3" s="19">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H3" s="12">
-        <v>41653</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="D19" s="28">
+        <v>639</v>
+      </c>
+      <c r="E19" s="29">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="22">
-        <v>163</v>
-      </c>
-      <c r="G4" s="19">
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="28">
+        <v>17800</v>
+      </c>
+      <c r="E20" s="29">
         <v>4.2</v>
       </c>
-      <c r="H4" s="12">
-        <v>41261</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="22">
-        <v>1400</v>
-      </c>
-      <c r="G5" s="19">
-        <v>4.8</v>
-      </c>
-      <c r="H5" s="12">
-        <v>39205</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="28">
+        <v>17650</v>
+      </c>
+      <c r="E21" s="29">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="22">
-        <v>179</v>
-      </c>
-      <c r="G6" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="H6" s="12">
-        <v>41582</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="22">
-        <v>2120</v>
-      </c>
-      <c r="G7" s="19">
-        <v>4.3</v>
-      </c>
-      <c r="H7" s="12">
-        <v>40113</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="22">
-        <v>471</v>
-      </c>
-      <c r="G8" s="19">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H8" s="12">
-        <v>40402</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="22">
-        <v>1600</v>
-      </c>
-      <c r="G9" s="19">
-        <v>4.2</v>
-      </c>
-      <c r="H9" s="12">
-        <v>38574</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="22">
-        <v>284</v>
-      </c>
-      <c r="G10" s="19">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H10" s="12">
-        <v>37740</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="B14" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="2:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="B18" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>35</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <mergeCells count="1">
+    <mergeCell ref="B11:G11"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:H10">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>$F3&gt;=1000</formula>
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$F3&lt;=8000</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3023,269 +3048,354 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J19"/>
+  <dimension ref="B1:H18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="19.25" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="11.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="12.25" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="2"/>
-      <c r="C2" s="24" t="s">
+    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="27">
+        <v>6390</v>
+      </c>
+      <c r="G3" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="H3" s="15">
+        <v>174320</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="27">
+        <v>17800</v>
+      </c>
+      <c r="G4" s="16">
+        <v>4.2</v>
+      </c>
+      <c r="H4" s="15">
+        <v>18222</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-    </row>
-    <row r="3" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="C3" s="25" t="s">
+      <c r="F5" s="27">
+        <v>17650</v>
+      </c>
+      <c r="G5" s="16">
+        <v>5</v>
+      </c>
+      <c r="H5" s="15">
+        <v>30763</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="27">
+        <f>SUBTOTAL(1,F3:F5)</f>
+        <v>13946.666666666666</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="3">
+        <f>SUBTOTAL(3,C3:C5)</f>
+        <v>3</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="25" t="s">
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="27">
+        <v>4640</v>
+      </c>
+      <c r="G8" s="16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H8" s="15">
+        <v>23869</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3"/>
-      <c r="J3"/>
-    </row>
-    <row r="4" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="26" t="s">
+      <c r="D9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="27">
+        <v>14490</v>
+      </c>
+      <c r="G9" s="16">
+        <v>4.2</v>
+      </c>
+      <c r="H9" s="15">
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="27">
+        <v>8560</v>
+      </c>
+      <c r="G10" s="16">
+        <v>4</v>
+      </c>
+      <c r="H10" s="15">
+        <v>12870</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="F11" s="27">
+        <f>SUBTOTAL(1,F8:F10)</f>
+        <v>9230</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="3">
+        <f>SUBTOTAL(3,C8:C10)</f>
+        <v>3</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="27">
+        <v>19900</v>
+      </c>
+      <c r="G13" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="H13" s="15">
+        <v>10967</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="27">
+        <v>7150</v>
+      </c>
+      <c r="G14" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="H14" s="15">
+        <v>14825</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4"/>
-    </row>
-    <row r="5" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="23" t="s">
+      <c r="F15" s="36">
+        <f>SUBTOTAL(1,F13:F14)</f>
+        <v>13525</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="34"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31">
+        <f>SUBTOTAL(3,C13:C14)</f>
+        <v>2</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="34"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="27">
-        <v>1</v>
-      </c>
-      <c r="D5" s="27">
-        <v>1600</v>
-      </c>
-      <c r="E5" s="27">
-        <v>1</v>
-      </c>
-      <c r="F5" s="27">
-        <v>163</v>
-      </c>
-      <c r="G5" s="27">
-        <v>1</v>
-      </c>
-      <c r="H5" s="27">
-        <v>2120</v>
-      </c>
-      <c r="I5"/>
-      <c r="J5"/>
-    </row>
-    <row r="6" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="27">
-        <v>2</v>
-      </c>
-      <c r="D6" s="27">
-        <v>251.5</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="27">
-        <v>179</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6"/>
-    </row>
-    <row r="7" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="27">
-        <v>2</v>
-      </c>
-      <c r="F7" s="27">
-        <v>935.5</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7"/>
-      <c r="J7"/>
-    </row>
-    <row r="8" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="27">
-        <v>3</v>
-      </c>
-      <c r="D8" s="27">
-        <v>701</v>
-      </c>
-      <c r="E8" s="27">
-        <v>3</v>
-      </c>
-      <c r="F8" s="27">
-        <v>678</v>
-      </c>
-      <c r="G8" s="27">
-        <v>2</v>
-      </c>
-      <c r="H8" s="27">
-        <v>1149.5</v>
-      </c>
-      <c r="I8"/>
-      <c r="J8"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
+      <c r="F17" s="36">
+        <f>SUBTOTAL(1,F3:F14)</f>
+        <v>12072.5</v>
+      </c>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31">
+        <f>SUBTOTAL(3,C3:C14)</f>
+        <v>8</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <sortState ref="B3:H10">
+    <sortCondition descending="1" ref="E3:E10"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B3:H18">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$F3&lt;=8000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>